--- a/agtechbioscience_markets.xlsx
+++ b/agtechbioscience_markets.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="427" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B18745FB-673D-488C-99F5-EC70B7EE57FF}"/>
   <bookViews>
-    <workbookView xWindow="19000" yWindow="2410" windowWidth="19250" windowHeight="16940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20870" yWindow="370" windowWidth="16420" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indiana Agbioscience" sheetId="1" r:id="rId1"/>
@@ -468,26 +468,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -996,7 +992,7 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1021,7 +1017,7 @@
       <c r="K1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J2"/>
@@ -1079,7 +1075,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <f>SUM(H9:H1048576)</f>
         <v>1393.7</v>
       </c>
@@ -1092,57 +1088,55 @@
       <c r="B9" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>45582</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8">
+      <c r="G9" s="6"/>
+      <c r="H9" s="7">
         <v>70</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>45561</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="4">
+      <c r="H10" s="1">
         <v>44.4</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="10" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1150,57 +1144,53 @@
       <c r="B11" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>45558</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="4">
+      <c r="H11" s="1">
         <v>40</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11">
         <v>130</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L11" s="12"/>
+      <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>45554</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="12" t="s">
+      <c r="H12" s="1"/>
+      <c r="L12" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1208,26 +1198,23 @@
       <c r="B13" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>45554</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="12" t="s">
+      <c r="H13" s="1"/>
+      <c r="L13" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1235,165 +1222,149 @@
       <c r="B14" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>45547</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="4">
+      <c r="H14" s="1">
         <v>55</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" t="s">
         <v>81</v>
       </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L14" s="12"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>45547</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
+      <c r="H15">
         <v>40</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" t="s">
         <v>48</v>
       </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="12"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>45540</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="18">
+      <c r="H16" s="1">
         <v>35</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="12"/>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>45539</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="4">
+      <c r="H17" s="1">
         <v>58</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L17" s="12"/>
+      <c r="L17" s="10"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>45534</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="4">
+      <c r="H18" s="1">
         <v>17.3</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="I18" t="s">
         <v>49</v>
       </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L18" s="12"/>
+      <c r="L18" s="10"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>45531</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="12" t="s">
+      <c r="H19" s="1"/>
+      <c r="L19" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1401,32 +1372,31 @@
       <c r="B20" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>45526</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="4">
+      <c r="H20" s="1">
         <v>13.9</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" t="s">
         <v>66</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="1">
         <v>32.4</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="L20" s="10" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1434,302 +1404,289 @@
       <c r="B21" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="9">
         <v>45516</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="4">
+      <c r="H21" s="1">
         <v>13.1</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="I21" t="s">
         <v>78</v>
       </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="12"/>
+      <c r="L21" s="10"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>45509</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="4">
+      <c r="H22" s="1">
         <v>55</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I22" t="s">
         <v>49</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J22" s="1">
         <v>265.3</v>
       </c>
-      <c r="K22" s="18" t="s">
+      <c r="K22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L22" s="12"/>
+      <c r="L22" s="10"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="9">
         <v>45504</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="4">
+      <c r="H23" s="1">
         <v>21.5</v>
       </c>
-      <c r="I23" s="17" t="s">
+      <c r="I23" t="s">
         <v>66</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J23" s="1">
         <v>55</v>
       </c>
-      <c r="K23" s="18" t="s">
+      <c r="K23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L23" s="12"/>
+      <c r="L23" s="10"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <v>45498</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="4">
+      <c r="H24" s="1">
         <v>30</v>
       </c>
-      <c r="I24" s="17" t="s">
+      <c r="I24" t="s">
         <v>49</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24">
         <v>127</v>
       </c>
-      <c r="K24" s="18" t="s">
+      <c r="K24" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L24" s="12"/>
+      <c r="L24" s="10"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="9">
         <v>45498</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" t="s">
         <v>88</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="4">
+      <c r="H25" s="1">
         <v>38</v>
       </c>
-      <c r="I25" s="17" t="s">
+      <c r="I25" t="s">
         <v>91</v>
       </c>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18" t="s">
+      <c r="K25" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L25" s="12"/>
+      <c r="L25" s="10"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="9">
         <v>45496</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="4">
+      <c r="H26" s="1">
         <v>162</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I26" t="s">
         <v>49</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="1">
         <v>1564</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L26" s="12"/>
+      <c r="L26" s="10"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="9">
         <v>45495</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="4">
+      <c r="H27" s="1">
         <v>133</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I27" t="s">
         <v>48</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="1">
         <v>518</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L27" s="12"/>
+      <c r="L27" s="10"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="9">
         <v>45494</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" t="s">
         <v>95</v>
       </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="4">
+      <c r="H28" s="1">
         <v>30</v>
       </c>
-      <c r="I28" s="17" t="s">
+      <c r="I28" t="s">
         <v>96</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="1">
         <v>120</v>
       </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="12"/>
+      <c r="L28" s="10"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="9">
         <v>45486</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="4">
+      <c r="H29" s="1">
         <v>17.5</v>
       </c>
-      <c r="I29" s="17" t="s">
+      <c r="I29" t="s">
         <v>66</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="1">
         <v>41.5</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L29" s="12"/>
+      <c r="L29" s="10"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="11">
         <v>45491</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="14"/>
+      <c r="G30" s="12"/>
       <c r="H30" s="3">
         <v>520</v>
       </c>
-      <c r="I30" s="14" t="s">
+      <c r="I30" s="12" t="s">
         <v>57</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="15"/>
+      <c r="L30" s="13"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="H31" s="4"/>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="H32" s="1"/>
